--- a/PID.xlsx
+++ b/PID.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>kp1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,7 +66,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>speed</t>
+    <t>kd3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kd4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -437,16 +441,15 @@
     <col min="2" max="2" width="6.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5.875" style="2" customWidth="1"/>
-    <col min="8" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="34.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="3"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="5" max="6" width="7.125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="6.125" style="2" customWidth="1"/>
+    <col min="9" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="34.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="3"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -463,31 +466,34 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>9</v>
       </c>
@@ -500,14 +506,11 @@
       <c r="E2" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>9.3000000000000007</v>
       </c>
@@ -520,14 +523,11 @@
       <c r="E3" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>9</v>
       </c>
@@ -543,26 +543,26 @@
       <c r="E4" s="2">
         <v>2.1</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>300</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>270</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>240</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>220</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>8.8000000000000007</v>
       </c>
@@ -578,26 +578,26 @@
       <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>310</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>275</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>240</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>220</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>9</v>
       </c>
@@ -613,23 +613,175 @@
       <c r="E6" s="2">
         <v>1.95</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>0.95</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>335</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>280</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>250</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>225</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B7" s="2">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D7" s="2">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="I7" s="2">
+        <v>335</v>
+      </c>
+      <c r="J7" s="2">
+        <v>280</v>
+      </c>
+      <c r="K7" s="2">
+        <v>250</v>
+      </c>
+      <c r="L7" s="2">
+        <v>225</v>
+      </c>
+      <c r="M7" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B8" s="2">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="D8" s="2">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I8" s="2">
+        <v>340</v>
+      </c>
+      <c r="J8" s="2">
+        <v>295</v>
+      </c>
+      <c r="K8" s="2">
+        <v>255</v>
+      </c>
+      <c r="L8" s="2">
+        <v>225</v>
+      </c>
+      <c r="M8" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>9.15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="F9" s="2">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="H9" s="2">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2">
+        <v>345</v>
+      </c>
+      <c r="J9" s="2">
+        <v>290</v>
+      </c>
+      <c r="K9" s="2">
+        <v>250</v>
+      </c>
+      <c r="L9" s="2">
+        <v>225</v>
+      </c>
+      <c r="M9" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B10" s="2">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.58</v>
+      </c>
+      <c r="D10" s="2">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="F10" s="2">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="H10" s="2">
+        <v>55</v>
+      </c>
+      <c r="I10" s="2">
+        <v>310</v>
+      </c>
+      <c r="J10" s="2">
+        <v>270</v>
+      </c>
+      <c r="K10" s="2">
+        <v>240</v>
+      </c>
+      <c r="L10" s="2">
+        <v>220</v>
+      </c>
+      <c r="M10" s="2">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/PID.xlsx
+++ b/PID.xlsx
@@ -429,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -782,6 +782,129 @@
       </c>
       <c r="M10" s="2">
         <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H11" s="2">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2">
+        <v>360</v>
+      </c>
+      <c r="J11" s="2">
+        <v>240</v>
+      </c>
+      <c r="K11" s="2">
+        <v>220</v>
+      </c>
+      <c r="L11" s="2">
+        <v>210</v>
+      </c>
+      <c r="M11" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>3.54</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2.38</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H12" s="2">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2">
+        <v>360</v>
+      </c>
+      <c r="J12" s="2">
+        <v>280</v>
+      </c>
+      <c r="K12" s="2">
+        <v>260</v>
+      </c>
+      <c r="L12" s="2">
+        <v>230</v>
+      </c>
+      <c r="M12" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F13" s="2">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H13" s="2">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2">
+        <v>380</v>
+      </c>
+      <c r="J13" s="2">
+        <v>300</v>
+      </c>
+      <c r="K13" s="2">
+        <v>260</v>
+      </c>
+      <c r="L13" s="2">
+        <v>230</v>
+      </c>
+      <c r="M13" s="2">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/PID.xlsx
+++ b/PID.xlsx
@@ -432,7 +432,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/PID.xlsx
+++ b/PID.xlsx
@@ -432,7 +432,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/PID.xlsx
+++ b/PID.xlsx
@@ -429,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -905,6 +905,88 @@
       </c>
       <c r="M13" s="2">
         <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>45</v>
+      </c>
+      <c r="I15" s="2">
+        <v>480</v>
+      </c>
+      <c r="J15" s="2">
+        <v>360</v>
+      </c>
+      <c r="K15" s="2">
+        <v>280</v>
+      </c>
+      <c r="L15" s="2">
+        <v>230</v>
+      </c>
+      <c r="M15" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H16" s="2">
+        <v>45</v>
+      </c>
+      <c r="I16" s="2">
+        <v>500</v>
+      </c>
+      <c r="J16" s="2">
+        <v>380</v>
+      </c>
+      <c r="K16" s="2">
+        <v>280</v>
+      </c>
+      <c r="L16" s="2">
+        <v>230</v>
+      </c>
+      <c r="M16" s="2">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
